--- a/data_year/zb/建筑业/建筑业企业总收入.xlsx
+++ b/data_year/zb/建筑业/建筑业企业总收入.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,476 +468,276 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>943.5590999999999</v>
+        <v>6515.0138</v>
       </c>
       <c r="C2" t="n">
-        <v>9697.271000000001</v>
+        <v>81929.4791</v>
       </c>
       <c r="D2" t="n">
-        <v>11003.0241</v>
+        <v>92196.41989999999</v>
       </c>
       <c r="E2" t="n">
-        <v>68.32346</v>
+        <v>262.4058</v>
       </c>
       <c r="F2" t="n">
-        <v>503.8004</v>
+        <v>1440.1586</v>
       </c>
       <c r="G2" t="n">
-        <v>11506.8245</v>
+        <v>93636.5784</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1159.6329</v>
+        <v>3799.17947</v>
       </c>
       <c r="C3" t="n">
-        <v>12494.2995</v>
+        <v>98394.70836999999</v>
       </c>
       <c r="D3" t="n">
-        <v>14126.2655</v>
+        <v>110703.99286</v>
       </c>
       <c r="E3" t="n">
-        <v>71.48393</v>
+        <v>305.16511</v>
       </c>
       <c r="F3" t="n">
-        <v>448.0699</v>
+        <v>1298.79367</v>
       </c>
       <c r="G3" t="n">
-        <v>14574.3354</v>
+        <v>112002.78653</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1395.0478</v>
+        <v>4495.27106</v>
       </c>
       <c r="C4" t="n">
-        <v>15247.4083</v>
+        <v>113751.97977</v>
       </c>
       <c r="D4" t="n">
-        <v>17209.2117</v>
+        <v>128761.70756</v>
       </c>
       <c r="E4" t="n">
-        <v>85.6237</v>
+        <v>192.13017</v>
       </c>
       <c r="F4" t="n">
-        <v>535.566</v>
+        <v>1421.22377</v>
       </c>
       <c r="G4" t="n">
-        <v>17744.7777</v>
+        <v>130182.93133</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1674.0685</v>
+        <v>6133.23586</v>
       </c>
       <c r="C5" t="n">
-        <v>19099.2216</v>
+        <v>144604.53831</v>
       </c>
       <c r="D5" t="n">
-        <v>21493.5842</v>
+        <v>164015.69665</v>
       </c>
       <c r="E5" t="n">
-        <v>95.4564</v>
+        <v>191.91976</v>
       </c>
       <c r="F5" t="n">
-        <v>543.6847</v>
+        <v>1659.54944000001</v>
       </c>
       <c r="G5" t="n">
-        <v>22037.2689</v>
+        <v>165675.24609</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2372.61361</v>
+        <v>6183.54878</v>
       </c>
       <c r="C6" t="n">
-        <v>28856.43605</v>
+        <v>148559.36023</v>
       </c>
       <c r="D6" t="n">
-        <v>32510.53806</v>
+        <v>168392.17824</v>
       </c>
       <c r="E6" t="n">
-        <v>110.26049</v>
+        <v>187.99479</v>
       </c>
       <c r="F6" t="n">
-        <v>687.95321</v>
+        <v>2313.21140999999</v>
       </c>
       <c r="G6" t="n">
-        <v>33198.49127</v>
+        <v>170705.38965</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2809.89933</v>
+        <v>6745.07795</v>
       </c>
       <c r="C7" t="n">
-        <v>35047.96111</v>
+        <v>160040.27821</v>
       </c>
       <c r="D7" t="n">
-        <v>39409.5866</v>
+        <v>179421.32107</v>
       </c>
       <c r="E7" t="n">
-        <v>127.42412</v>
+        <v>155.97503</v>
       </c>
       <c r="F7" t="n">
-        <v>745.42855</v>
+        <v>2349.42932</v>
       </c>
       <c r="G7" t="n">
-        <v>40155.0152</v>
+        <v>181770.75039</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3365.72837</v>
+        <v>7245.76257</v>
       </c>
       <c r="C8" t="n">
-        <v>43228.67828</v>
+        <v>172671.57345</v>
       </c>
       <c r="D8" t="n">
-        <v>48509.30238</v>
+        <v>191749.32166</v>
       </c>
       <c r="E8" t="n">
-        <v>168.57725</v>
+        <v>167.85076</v>
       </c>
       <c r="F8" t="n">
-        <v>905.45228</v>
+        <v>2415.2613</v>
       </c>
       <c r="G8" t="n">
-        <v>49414.75466</v>
+        <v>194164.58296</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4490.68805</v>
+        <v>7788.58802</v>
       </c>
       <c r="C9" t="n">
-        <v>52714.55895</v>
+        <v>190247.23257</v>
       </c>
       <c r="D9" t="n">
-        <v>59717.93718</v>
+        <v>209338.83104</v>
       </c>
       <c r="E9" t="n">
-        <v>197.70844</v>
+        <v>185.03989</v>
       </c>
       <c r="F9" t="n">
-        <v>1018.50574</v>
+        <v>2652.87311</v>
       </c>
       <c r="G9" t="n">
-        <v>60736.44292</v>
+        <v>211991.70415</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5217.894</v>
+        <v>7911.00698</v>
       </c>
       <c r="C10" t="n">
-        <v>66244.14973999999</v>
+        <v>209645.44016</v>
       </c>
       <c r="D10" t="n">
-        <v>74431.07306</v>
+        <v>229166.79635</v>
       </c>
       <c r="E10" t="n">
-        <v>204.52953</v>
+        <v>224.79933</v>
       </c>
       <c r="F10" t="n">
-        <v>1047.12505</v>
+        <v>3449.43975</v>
       </c>
       <c r="G10" t="n">
-        <v>75478.19811</v>
+        <v>232616.2361</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6515.0138</v>
+        <v>8187.4129</v>
       </c>
       <c r="C11" t="n">
-        <v>81929.4791</v>
+        <v>221687.9171</v>
       </c>
       <c r="D11" t="n">
-        <v>92196.41989999999</v>
+        <v>241267.3878</v>
       </c>
       <c r="E11" t="n">
-        <v>262.4058</v>
+        <v>217.33588</v>
       </c>
       <c r="F11" t="n">
-        <v>1440.1586</v>
+        <v>3597.11017</v>
       </c>
       <c r="G11" t="n">
-        <v>93636.5784</v>
+        <v>244864.498</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3799.17947</v>
+        <v>8193.19623</v>
       </c>
       <c r="C12" t="n">
-        <v>98394.70836999999</v>
+        <v>241391.14125</v>
       </c>
       <c r="D12" t="n">
-        <v>110703.99286</v>
+        <v>262453.81074</v>
       </c>
       <c r="E12" t="n">
-        <v>305.16511</v>
+        <v>239.8214</v>
       </c>
       <c r="F12" t="n">
-        <v>1298.79367</v>
+        <v>5441.92616</v>
       </c>
       <c r="G12" t="n">
-        <v>112002.78653</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4495.27106</v>
-      </c>
-      <c r="C13" t="n">
-        <v>113751.97977</v>
-      </c>
-      <c r="D13" t="n">
-        <v>128761.70756</v>
-      </c>
-      <c r="E13" t="n">
-        <v>192.13017</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1421.22377</v>
-      </c>
-      <c r="G13" t="n">
-        <v>130182.93133</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>6133.23586</v>
-      </c>
-      <c r="C14" t="n">
-        <v>144604.53831</v>
-      </c>
-      <c r="D14" t="n">
-        <v>164015.69665</v>
-      </c>
-      <c r="E14" t="n">
-        <v>191.91976</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1659.54944000001</v>
-      </c>
-      <c r="G14" t="n">
-        <v>165675.24609</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6183.54878</v>
-      </c>
-      <c r="C15" t="n">
-        <v>148559.36023</v>
-      </c>
-      <c r="D15" t="n">
-        <v>168392.17824</v>
-      </c>
-      <c r="E15" t="n">
-        <v>187.99479</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2313.21140999999</v>
-      </c>
-      <c r="G15" t="n">
-        <v>170705.38965</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>6745.07795</v>
-      </c>
-      <c r="C16" t="n">
-        <v>160040.27821</v>
-      </c>
-      <c r="D16" t="n">
-        <v>179421.32107</v>
-      </c>
-      <c r="E16" t="n">
-        <v>155.97503</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2349.42932</v>
-      </c>
-      <c r="G16" t="n">
-        <v>181770.75039</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>7245.76257</v>
-      </c>
-      <c r="C17" t="n">
-        <v>172671.57345</v>
-      </c>
-      <c r="D17" t="n">
-        <v>191749.32166</v>
-      </c>
-      <c r="E17" t="n">
-        <v>167.85076</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2415.2613</v>
-      </c>
-      <c r="G17" t="n">
-        <v>194164.58296</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7788.58802</v>
-      </c>
-      <c r="C18" t="n">
-        <v>190247.23257</v>
-      </c>
-      <c r="D18" t="n">
-        <v>209338.83104</v>
-      </c>
-      <c r="E18" t="n">
-        <v>185.03989</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2652.87311</v>
-      </c>
-      <c r="G18" t="n">
-        <v>211991.70415</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7911.00698</v>
-      </c>
-      <c r="C19" t="n">
-        <v>209645.44016</v>
-      </c>
-      <c r="D19" t="n">
-        <v>229166.79635</v>
-      </c>
-      <c r="E19" t="n">
-        <v>224.79933</v>
-      </c>
-      <c r="F19" t="n">
-        <v>3449.43975</v>
-      </c>
-      <c r="G19" t="n">
-        <v>232616.2361</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>8187.4129</v>
-      </c>
-      <c r="C20" t="n">
-        <v>221687.9171</v>
-      </c>
-      <c r="D20" t="n">
-        <v>241267.3878</v>
-      </c>
-      <c r="E20" t="n">
-        <v>217.33588</v>
-      </c>
-      <c r="F20" t="n">
-        <v>3597.11017</v>
-      </c>
-      <c r="G20" t="n">
-        <v>244864.498</v>
+        <v>267895.7369</v>
       </c>
     </row>
   </sheetData>
